--- a/orders_data.xlsx
+++ b/orders_data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL4"/>
+  <dimension ref="A1:AL14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,187 +440,187 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Created At</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Order ID</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Product Generic Id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Product Name</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Article Id</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Size</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>color</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>mrp</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>quantity</t>
+          <t>Color</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>sub_total</t>
+          <t>MRP</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>Quantity</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Product Total</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>Customer Name</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Customer Email</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Customer Contact</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Address Line 1</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Address Line 2</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>City</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Postal Code</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Country</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>State</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Payment Type</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Payment Status</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Payment ID</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Payment Amount</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>Delivery Status</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Airway Bill No</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Courier</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Dispatch Label URL</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Expected Date</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>Order Cancel</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>Order Return</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>Shipping Details</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>Coupon</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>MRP Price</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>Subtotal</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>Delivery Charges</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>Coupon Discount</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>Discount Percentage</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>Created At</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
@@ -630,401 +630,1771 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>SZ-70682</t>
-        </is>
+      <c r="A2" s="2" t="n">
+        <v>45296.2896794211</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>10020153923</t>
+          <t>SZ-30177</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1002015392306</t>
+          <t>10020177421</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>Plus Size Checks Shirt</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Wine</t>
+          <t>1002017742101</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2299.0</t>
-        </is>
-      </c>
-      <c r="G2" t="n">
-        <v>5</v>
-      </c>
-      <c r="H2" t="n">
-        <v>11495</v>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>HrithikHadawale</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>hrithikhadawale75@gmail.com</t>
-        </is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Maroon</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2599.0</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2599</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>9082363252</t>
+          <t>KushalBauskar</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Bhimashankar society parerawadi</t>
+          <t>kbauskar07@gmail.com</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>Aslfa Ghatkopar West</t>
+          <t>8433771414</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>Mumbai</t>
+          <t>Sk road, Regency</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>400084</t>
+          <t>Regency Anantam</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
+          <t>Dombivali</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>421202</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
           <t>India</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>Maharashtra</t>
         </is>
       </c>
-      <c r="R2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>COD</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>11495.00</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>Order Processing</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>10496.00</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Canceled</t>
+        </is>
+      </c>
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr"/>
-      <c r="AA2" t="b">
+      <c r="AA2" t="inlineStr"/>
+      <c r="AB2" t="inlineStr"/>
+      <c r="AC2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD2" t="b">
         <v>0</v>
       </c>
-      <c r="AB2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC2" t="inlineStr"/>
-      <c r="AD2" t="inlineStr"/>
-      <c r="AE2" t="n">
-        <v>11495</v>
-      </c>
+      <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="n">
-        <v>11495</v>
+        <v>10496</v>
       </c>
       <c r="AG2" t="n">
-        <v>41</v>
+        <v>10496</v>
       </c>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>
       <c r="AJ2" t="inlineStr"/>
-      <c r="AK2" s="2" t="n">
-        <v>45290.50296158909</v>
-      </c>
+      <c r="AK2" t="inlineStr"/>
       <c r="AL2" s="2" t="n">
-        <v>45290.50293810288</v>
+        <v>45296.28880862877</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>SZ-67398</t>
-        </is>
+      <c r="A3" s="2" t="n">
+        <v>45296.2896794211</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>20020296205</t>
+          <t>SZ-30177</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2002029620500</t>
+          <t>20022599810</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Plus Size Printed Dress</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Yellow</t>
+          <t>2002259981001</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1699.0</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2699.0</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
         <v>1</v>
       </c>
-      <c r="H3" t="n">
-        <v>1699</v>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>SarveshKondhalkar</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>sarvesh@sizeupp.com</t>
-        </is>
+      <c r="J3" t="n">
+        <v>2699</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>9870332657</t>
+          <t>KushalBauskar</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>solaris1, f-434</t>
+          <t>kbauskar07@gmail.com</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>opp l&amp;t gate 6</t>
+          <t>8433771414</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>mumbai</t>
+          <t>Sk road, Regency</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>400072</t>
+          <t>Regency Anantam</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
+          <t>Dombivali</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>421202</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
           <t>India</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>maharashtra</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>Maharashtra</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
         <is>
           <t>COD</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>5297.00</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>Order Processing</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>10496.00</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>Canceled</t>
+        </is>
+      </c>
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr"/>
-      <c r="AA3" t="b">
+      <c r="AA3" t="inlineStr"/>
+      <c r="AB3" t="inlineStr"/>
+      <c r="AC3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD3" t="b">
         <v>0</v>
       </c>
-      <c r="AB3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC3" t="inlineStr"/>
-      <c r="AD3" t="inlineStr"/>
-      <c r="AE3" t="n">
-        <v>5297</v>
-      </c>
+      <c r="AE3" t="inlineStr"/>
       <c r="AF3" t="n">
-        <v>5297</v>
-      </c>
-      <c r="AG3" t="inlineStr"/>
+        <v>10496</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>10496</v>
+      </c>
       <c r="AH3" t="inlineStr"/>
       <c r="AI3" t="inlineStr"/>
       <c r="AJ3" t="inlineStr"/>
-      <c r="AK3" s="2" t="n">
-        <v>45290.52751721921</v>
-      </c>
+      <c r="AK3" t="inlineStr"/>
       <c r="AL3" s="2" t="n">
-        <v>45290.52750749762</v>
+        <v>45296.28880862877</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>SZ-67398</t>
-        </is>
+      <c r="A4" s="2" t="n">
+        <v>45296.2896794211</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>10025050707</t>
+          <t>SZ-30177</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1002505070701</t>
+          <t>10020177898</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>Plus Size Checks Shirt</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>1002017789801</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Rust</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1799.0</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>2</v>
-      </c>
-      <c r="H4" t="n">
-        <v>3598</v>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>SarveshKondhalkar</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>sarvesh@sizeupp.com</t>
-        </is>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Sky Blue</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2599.0</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2599</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>9870332657</t>
+          <t>KushalBauskar</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>solaris1, f-434</t>
+          <t>kbauskar07@gmail.com</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>opp l&amp;t gate 6</t>
+          <t>8433771414</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>mumbai</t>
+          <t>Sk road, Regency</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>400072</t>
+          <t>Regency Anantam</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
+          <t>Dombivali</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>421202</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
           <t>India</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>maharashtra</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>Maharashtra</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
         <is>
           <t>COD</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>5297.00</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>Order Processing</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>10496.00</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>Canceled</t>
+        </is>
+      </c>
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr"/>
-      <c r="AA4" t="b">
+      <c r="AA4" t="inlineStr"/>
+      <c r="AB4" t="inlineStr"/>
+      <c r="AC4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD4" t="b">
         <v>0</v>
       </c>
-      <c r="AB4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC4" t="inlineStr"/>
-      <c r="AD4" t="inlineStr"/>
-      <c r="AE4" t="n">
-        <v>5297</v>
-      </c>
+      <c r="AE4" t="inlineStr"/>
       <c r="AF4" t="n">
-        <v>5297</v>
-      </c>
-      <c r="AG4" t="inlineStr"/>
+        <v>10496</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>10496</v>
+      </c>
       <c r="AH4" t="inlineStr"/>
       <c r="AI4" t="inlineStr"/>
       <c r="AJ4" t="inlineStr"/>
-      <c r="AK4" s="2" t="n">
-        <v>45290.52751721921</v>
-      </c>
+      <c r="AK4" t="inlineStr"/>
       <c r="AL4" s="2" t="n">
-        <v>45290.52750749762</v>
+        <v>45296.28880862877</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45296.2896794211</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>SZ-30177</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>10020176731</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Plus Size Checks Shirt</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>1002017673101</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Grey</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2599.0</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2599</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>KushalBauskar</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>kbauskar07@gmail.com</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>8433771414</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Sk road, Regency</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Regency Anantam</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Dombivali</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>421202</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>Maharashtra</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>COD</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>10496.00</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>Canceled</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr"/>
+      <c r="AA5" t="inlineStr"/>
+      <c r="AB5" t="inlineStr"/>
+      <c r="AC5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="inlineStr"/>
+      <c r="AF5" t="n">
+        <v>10496</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>10496</v>
+      </c>
+      <c r="AH5" t="inlineStr"/>
+      <c r="AI5" t="inlineStr"/>
+      <c r="AJ5" t="inlineStr"/>
+      <c r="AK5" t="inlineStr"/>
+      <c r="AL5" s="2" t="n">
+        <v>45296.28880862877</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45296.32522386553</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>SZ-11790</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>10020178402</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Plus Size Printed Shirt</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>1002017840201</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2399.0</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2399</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>KushalBauskar</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>kbauskar07@gmail.com</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>8433771414</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Sk road, Regency</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Regency Anantam</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Dombivali</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>421202</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>Maharashtra</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>COD</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>2399.00</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>Order Processing</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr"/>
+      <c r="Z6" t="inlineStr"/>
+      <c r="AA6" t="inlineStr"/>
+      <c r="AB6" t="inlineStr"/>
+      <c r="AC6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="inlineStr"/>
+      <c r="AF6" t="n">
+        <v>2399</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>2399</v>
+      </c>
+      <c r="AH6" t="inlineStr"/>
+      <c r="AI6" t="inlineStr"/>
+      <c r="AJ6" t="inlineStr"/>
+      <c r="AK6" t="inlineStr"/>
+      <c r="AL6" s="2" t="n">
+        <v>45296.32510391572</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45296.32889575613</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>SZ-97658</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>10020188319</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Plus Size Solid Oxford Shirt</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>1002018831901</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2299.0</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2299</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>PratikDhumal</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>pratikd2124@gmail.com</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>9833964559</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Vasantdada Patil Education Complex</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>Chunabhatti, Sion</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Mumbai</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>400022</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>COD</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>2299.00</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>Order Processing</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr"/>
+      <c r="Z7" t="inlineStr"/>
+      <c r="AA7" t="inlineStr"/>
+      <c r="AB7" t="inlineStr"/>
+      <c r="AC7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="inlineStr"/>
+      <c r="AF7" t="n">
+        <v>2299</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>2299</v>
+      </c>
+      <c r="AH7" t="inlineStr"/>
+      <c r="AI7" t="inlineStr"/>
+      <c r="AJ7" t="inlineStr"/>
+      <c r="AK7" t="inlineStr"/>
+      <c r="AL7" s="2" t="n">
+        <v>45296.3287740994</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45296.33965068372</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>SZ-77616</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>10020169905</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Plus Size Checks Shirt</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>1002016990501</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2599.0</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2599</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Hrithikhadawale</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>hrithikhadawale75@gmail.com</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>9082363252</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>ROO NO.12 BHIMASHANKAR HOU. SOCIETY</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>PARERAWADI ASLPHA GHAKOPER WEST</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>MUMBAI</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>400084</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>Maharashtra</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>COD</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>5198.00</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>Canceled</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr"/>
+      <c r="Z8" t="inlineStr"/>
+      <c r="AA8" t="inlineStr"/>
+      <c r="AB8" t="inlineStr"/>
+      <c r="AC8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="inlineStr"/>
+      <c r="AF8" t="n">
+        <v>5198</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>5198</v>
+      </c>
+      <c r="AH8" t="inlineStr"/>
+      <c r="AI8" t="inlineStr"/>
+      <c r="AJ8" t="inlineStr"/>
+      <c r="AK8" t="inlineStr"/>
+      <c r="AL8" s="2" t="n">
+        <v>45296.33910666193</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45296.33965068372</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>SZ-77616</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>10020172128</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Plus Size Checks Shirt</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>1002017212801</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2599.0</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2599</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Hrithikhadawale</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>hrithikhadawale75@gmail.com</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>9082363252</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>ROO NO.12 BHIMASHANKAR HOU. SOCIETY</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>PARERAWADI ASLPHA GHAKOPER WEST</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>MUMBAI</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>400084</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>Maharashtra</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>COD</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>5198.00</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>Canceled</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr"/>
+      <c r="Z9" t="inlineStr"/>
+      <c r="AA9" t="inlineStr"/>
+      <c r="AB9" t="inlineStr"/>
+      <c r="AC9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="inlineStr"/>
+      <c r="AF9" t="n">
+        <v>5198</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>5198</v>
+      </c>
+      <c r="AH9" t="inlineStr"/>
+      <c r="AI9" t="inlineStr"/>
+      <c r="AJ9" t="inlineStr"/>
+      <c r="AK9" t="inlineStr"/>
+      <c r="AL9" s="2" t="n">
+        <v>45296.33910666193</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45296.35940990305</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>SZ-74000</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>10023083717</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Plus Size Printed Boxers</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>1002308371708</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1-2</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>599.0</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>599</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Hrithikhadawale</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>hrithikhadawale75@gmail.com</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>9082363252</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>ROO NO.12 BHIMASHANKAR HOU. SOCIETY</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>PARERAWADI ASLPHA GHAKOPER WEST</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>MUMBAI</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>400084</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>Maharashtra</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>COD</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>599.00</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>Canceled</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr"/>
+      <c r="Z10" t="inlineStr"/>
+      <c r="AA10" t="inlineStr"/>
+      <c r="AB10" t="inlineStr"/>
+      <c r="AC10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="inlineStr"/>
+      <c r="AF10" t="n">
+        <v>599</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>599</v>
+      </c>
+      <c r="AH10" t="inlineStr"/>
+      <c r="AI10" t="inlineStr"/>
+      <c r="AJ10" t="inlineStr"/>
+      <c r="AK10" t="inlineStr"/>
+      <c r="AL10" s="2" t="n">
+        <v>45296.34501002879</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45296.35951728906</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>SZ-43883</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>10020171019</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Plus Size Checks Shirt</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>1002017101901</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2599.0</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2599</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Hrithikhadawale</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>hrithikhadawale75@gmail.com</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>9082363252</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>ROO NO.12 BHIMASHANKAR HOU. SOCIETY</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>PARERAWADI ASLPHA GHAKOPER WEST</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>MUMBAI</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>400084</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>Maharashtra</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>COD</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>5198.00</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>Canceled</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr"/>
+      <c r="Z11" t="inlineStr"/>
+      <c r="AA11" t="inlineStr"/>
+      <c r="AB11" t="inlineStr"/>
+      <c r="AC11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="inlineStr"/>
+      <c r="AF11" t="n">
+        <v>5198</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>5198</v>
+      </c>
+      <c r="AH11" t="inlineStr"/>
+      <c r="AI11" t="inlineStr"/>
+      <c r="AJ11" t="inlineStr"/>
+      <c r="AK11" t="inlineStr"/>
+      <c r="AL11" s="2" t="n">
+        <v>45296.35332485804</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45296.35951728906</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>SZ-43883</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>10020175411</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Plus Size Checks Shirt</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>1002017541101</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Navy</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2599.0</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2599</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Hrithikhadawale</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>hrithikhadawale75@gmail.com</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>9082363252</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>ROO NO.12 BHIMASHANKAR HOU. SOCIETY</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>PARERAWADI ASLPHA GHAKOPER WEST</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>MUMBAI</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>400084</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>Maharashtra</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>COD</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>5198.00</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>Canceled</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr"/>
+      <c r="Z12" t="inlineStr"/>
+      <c r="AA12" t="inlineStr"/>
+      <c r="AB12" t="inlineStr"/>
+      <c r="AC12" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="inlineStr"/>
+      <c r="AF12" t="n">
+        <v>5198</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>5198</v>
+      </c>
+      <c r="AH12" t="inlineStr"/>
+      <c r="AI12" t="inlineStr"/>
+      <c r="AJ12" t="inlineStr"/>
+      <c r="AK12" t="inlineStr"/>
+      <c r="AL12" s="2" t="n">
+        <v>45296.35332485804</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45296.38586253003</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>SZ-28688</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>20022094120</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Plus Size Rib T-Shirt</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2002209412000</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Olive</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>1499.0</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1499</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>SaloniShigwan</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>saloni.sizeupp@gmail.com</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>7758062247</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>Solaris F 434</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>Andheri east</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Mumbai</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>400072</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>Maharastra</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>COD</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr"/>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>4098.00</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>Order Processing</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr"/>
+      <c r="Z13" t="inlineStr"/>
+      <c r="AA13" t="inlineStr"/>
+      <c r="AB13" t="inlineStr"/>
+      <c r="AC13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="inlineStr"/>
+      <c r="AF13" t="n">
+        <v>4098</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>4098</v>
+      </c>
+      <c r="AH13" t="inlineStr"/>
+      <c r="AI13" t="inlineStr"/>
+      <c r="AJ13" t="inlineStr"/>
+      <c r="AK13" t="inlineStr"/>
+      <c r="AL13" s="2" t="n">
+        <v>45296.38574425221</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45296.38586253003</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>SZ-28688</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>10020184932</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Plus Size Checks Shirt</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>1002018493201</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Indigo</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>2599.0</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>2599</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>SaloniShigwan</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>saloni.sizeupp@gmail.com</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>7758062247</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>Solaris F 434</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>Andheri east</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Mumbai</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>400072</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>Maharastra</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>COD</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>4098.00</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>Order Processing</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr"/>
+      <c r="Z14" t="inlineStr"/>
+      <c r="AA14" t="inlineStr"/>
+      <c r="AB14" t="inlineStr"/>
+      <c r="AC14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="inlineStr"/>
+      <c r="AF14" t="n">
+        <v>4098</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>4098</v>
+      </c>
+      <c r="AH14" t="inlineStr"/>
+      <c r="AI14" t="inlineStr"/>
+      <c r="AJ14" t="inlineStr"/>
+      <c r="AK14" t="inlineStr"/>
+      <c r="AL14" s="2" t="n">
+        <v>45296.38574425221</v>
       </c>
     </row>
   </sheetData>

--- a/orders_data.xlsx
+++ b/orders_data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL14"/>
+  <dimension ref="A1:AL26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -631,31 +631,31 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45296.2896794211</v>
+        <v>45297.29654761714</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SZ-30177</t>
+          <t>SZ-40575</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>10020177421</t>
+          <t>20020452621</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Plus Size Checks Shirt</t>
+          <t>Plus Size Solid Leggings</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1002017742101</t>
+          <t>2002045262100</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -665,58 +665,54 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2599.0</t>
+          <t>1199.0</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J2" t="n">
-        <v>2599</v>
+        <v>3597</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>KushalBauskar</t>
+          <t>SaloniShigwan</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>kbauskar07@gmail.com</t>
+          <t>saloni.sizeupp@gmail.com</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>8433771414</t>
+          <t>7758062247</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>Sk road, Regency</t>
+          <t>Solaris F 434</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Regency Anantam</t>
+          <t>Andheri east</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Dombivali</t>
+          <t>Mumbai</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>421202</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
+          <t>400072</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr">
         <is>
-          <t>Maharashtra</t>
+          <t>Maharastra</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
@@ -732,127 +728,135 @@
       <c r="V2" t="inlineStr"/>
       <c r="W2" t="inlineStr">
         <is>
-          <t>10496.00</t>
+          <t>5595.00</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>Canceled</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr"/>
-      <c r="AA2" t="inlineStr"/>
+          <t>Order Processing</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>77879747271</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>BlueDart</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>https://api.instashipin.com/api/ilogix/external_labels?api_token=AN1l6VJSo5WXp4UJvagd37WoJaDuMIIVhbpjU9jmMfbQxSuTsh5O7KaXE9TZjELVlQ1nCf4Tl1UMvHBH&amp;type=labels&amp;awbno=77879747271</t>
+        </is>
+      </c>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD2" t="b">
         <v>0</v>
       </c>
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="n">
-        <v>10496</v>
+        <v>5595</v>
       </c>
       <c r="AG2" t="n">
-        <v>10496</v>
+        <v>5595</v>
       </c>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>
       <c r="AJ2" t="inlineStr"/>
       <c r="AK2" t="inlineStr"/>
       <c r="AL2" s="2" t="n">
-        <v>45296.28880862877</v>
+        <v>45297.29635444897</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45296.2896794211</v>
+        <v>45297.29654761714</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SZ-30177</t>
+          <t>SZ-40575</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>20022599810</t>
+          <t>20021768213</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Plus Size Printed Dress</t>
+          <t>Plus Size Solid Core Tee</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2002259981001</t>
+          <t>2002176821300</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Pink</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2699.0</t>
+          <t>999.0</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" t="n">
-        <v>2699</v>
+        <v>1998</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>KushalBauskar</t>
+          <t>SaloniShigwan</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>kbauskar07@gmail.com</t>
+          <t>saloni.sizeupp@gmail.com</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>8433771414</t>
+          <t>7758062247</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>Sk road, Regency</t>
+          <t>Solaris F 434</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Regency Anantam</t>
+          <t>Andheri east</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Dombivali</t>
+          <t>Mumbai</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>421202</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
+          <t>400072</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr"/>
       <c r="S3" t="inlineStr">
         <is>
-          <t>Maharashtra</t>
+          <t>Maharastra</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
@@ -868,51 +872,63 @@
       <c r="V3" t="inlineStr"/>
       <c r="W3" t="inlineStr">
         <is>
-          <t>10496.00</t>
+          <t>5595.00</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>Canceled</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="inlineStr"/>
-      <c r="AA3" t="inlineStr"/>
+          <t>Order Processing</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>77879747271</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>BlueDart</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>https://api.instashipin.com/api/ilogix/external_labels?api_token=AN1l6VJSo5WXp4UJvagd37WoJaDuMIIVhbpjU9jmMfbQxSuTsh5O7KaXE9TZjELVlQ1nCf4Tl1UMvHBH&amp;type=labels&amp;awbno=77879747271</t>
+        </is>
+      </c>
       <c r="AB3" t="inlineStr"/>
       <c r="AC3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD3" t="b">
         <v>0</v>
       </c>
       <c r="AE3" t="inlineStr"/>
       <c r="AF3" t="n">
-        <v>10496</v>
+        <v>5595</v>
       </c>
       <c r="AG3" t="n">
-        <v>10496</v>
+        <v>5595</v>
       </c>
       <c r="AH3" t="inlineStr"/>
       <c r="AI3" t="inlineStr"/>
       <c r="AJ3" t="inlineStr"/>
       <c r="AK3" t="inlineStr"/>
       <c r="AL3" s="2" t="n">
-        <v>45296.28880862877</v>
+        <v>45297.29635444897</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45296.2896794211</v>
+        <v>45297.35353980844</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SZ-30177</t>
+          <t>SZ-54414</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>10020177898</t>
+          <t>10020176002</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -922,17 +938,17 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1002017789801</t>
+          <t>1002017600203</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Sky Blue</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -948,37 +964,37 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>KushalBauskar</t>
+          <t>PratikDhumal</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>kbauskar07@gmail.com</t>
+          <t>pratikd2124@gmail.com</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>8433771414</t>
+          <t>9833964559</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>Sk road, Regency</t>
+          <t>Vasantdada Patil Education Complex</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Regency Anantam</t>
+          <t>Chunabhatti, Sion</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Dombivali</t>
+          <t>Mumbai</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>421202</t>
+          <t>400022</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -1004,61 +1020,73 @@
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="inlineStr">
         <is>
-          <t>10496.00</t>
+          <t>2599.00</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>Canceled</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="inlineStr"/>
-      <c r="AA4" t="inlineStr"/>
+          <t>Order Processing</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>77879840990</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>BlueDart</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>https://api.instashipin.com/api/ilogix/external_labels?api_token=AN1l6VJSo5WXp4UJvagd37WoJaDuMIIVhbpjU9jmMfbQxSuTsh5O7KaXE9TZjELVlQ1nCf4Tl1UMvHBH&amp;type=labels&amp;awbno=77879840990</t>
+        </is>
+      </c>
       <c r="AB4" t="inlineStr"/>
       <c r="AC4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD4" t="b">
         <v>0</v>
       </c>
       <c r="AE4" t="inlineStr"/>
       <c r="AF4" t="n">
-        <v>10496</v>
+        <v>2599</v>
       </c>
       <c r="AG4" t="n">
-        <v>10496</v>
+        <v>2599</v>
       </c>
       <c r="AH4" t="inlineStr"/>
       <c r="AI4" t="inlineStr"/>
       <c r="AJ4" t="inlineStr"/>
       <c r="AK4" t="inlineStr"/>
       <c r="AL4" s="2" t="n">
-        <v>45296.28880862877</v>
+        <v>45297.35322450926</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45296.2896794211</v>
+        <v>45300.79840790622</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SZ-30177</t>
+          <t>SZ-36396</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>10020176731</t>
+          <t>10020880210</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Plus Size Checks Shirt</t>
+          <t>Plus Size Party Wear Shirt</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1002017673101</t>
+          <t>1002088021001</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -1068,19 +1096,19 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Grey</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2599.0</t>
+          <t>2499.0</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J5" t="n">
-        <v>2599</v>
+        <v>7497</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -1109,7 +1137,7 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Dombivali</t>
+          <t>Araria</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
@@ -1124,7 +1152,7 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>Maharashtra</t>
+          <t>Bihar</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
@@ -1140,83 +1168,103 @@
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="inlineStr">
         <is>
-          <t>10496.00</t>
+          <t>7498.00</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>Canceled</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr"/>
-      <c r="Z5" t="inlineStr"/>
-      <c r="AA5" t="inlineStr"/>
+          <t>Order Processing</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>SF74726940SHG</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>SHADOWFAX EXPRESS</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>https://api.instashipin.com/api/ilogix/external_labels?api_token=AN1l6VJSo5WXp4UJvagd37WoJaDuMIIVhbpjU9jmMfbQxSuTsh5O7KaXE9TZjELVlQ1nCf4Tl1UMvHBH&amp;type=labels&amp;awbno=SF74726940SHG</t>
+        </is>
+      </c>
       <c r="AB5" t="inlineStr"/>
       <c r="AC5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD5" t="b">
         <v>0</v>
       </c>
-      <c r="AE5" t="inlineStr"/>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>deactive</t>
+        </is>
+      </c>
       <c r="AF5" t="n">
-        <v>10496</v>
+        <v>7498</v>
       </c>
       <c r="AG5" t="n">
-        <v>10496</v>
+        <v>7498</v>
       </c>
       <c r="AH5" t="inlineStr"/>
-      <c r="AI5" t="inlineStr"/>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
       <c r="AJ5" t="inlineStr"/>
       <c r="AK5" t="inlineStr"/>
       <c r="AL5" s="2" t="n">
-        <v>45296.28880862877</v>
+        <v>45300.79821856712</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45296.32522386553</v>
+        <v>45300.80069948982</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SZ-11790</t>
+          <t>SZ-75798</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>10020178402</t>
+          <t>10020177619</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Plus Size Printed Shirt</t>
+          <t>Plus Size Checks Shirt</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1002017840201</t>
+          <t>1002017761903</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>White</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2399.0</t>
+          <t>2599.0</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J6" t="n">
-        <v>2399</v>
+        <v>7797</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -1245,7 +1293,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Dombivali</t>
+          <t>Araria</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
@@ -1260,7 +1308,7 @@
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>Maharashtra</t>
+          <t>Bihar</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
@@ -1276,7 +1324,7 @@
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="inlineStr">
         <is>
-          <t>2399.00</t>
+          <t>7498.00</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
@@ -1294,48 +1342,56 @@
       <c r="AD6" t="b">
         <v>0</v>
       </c>
-      <c r="AE6" t="inlineStr"/>
+      <c r="AE6" t="inlineStr">
+        <is>
+          <t>deactive</t>
+        </is>
+      </c>
       <c r="AF6" t="n">
-        <v>2399</v>
+        <v>7498</v>
       </c>
       <c r="AG6" t="n">
-        <v>2399</v>
+        <v>7498</v>
       </c>
       <c r="AH6" t="inlineStr"/>
-      <c r="AI6" t="inlineStr"/>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
       <c r="AJ6" t="inlineStr"/>
       <c r="AK6" t="inlineStr"/>
       <c r="AL6" s="2" t="n">
-        <v>45296.32510391572</v>
+        <v>45300.80057422199</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45296.32889575613</v>
+        <v>45300.80294193781</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SZ-97658</t>
+          <t>SZ-79032</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>10020188319</t>
+          <t>10020177619</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Plus Size Solid Oxford Shirt</t>
+          <t>Plus Size Checks Shirt</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1002018831901</t>
+          <t>1002017761903</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -1345,48 +1401,48 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2299.0</t>
+          <t>2599.0</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J7" t="n">
-        <v>2299</v>
+        <v>7797</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>PratikDhumal</t>
+          <t>KushalBauskar</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>pratikd2124@gmail.com</t>
+          <t>kbauskar07@gmail.com</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>9833964559</t>
+          <t>8433771414</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>Vasantdada Patil Education Complex</t>
+          <t>Sk road, Regency</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Chunabhatti, Sion</t>
+          <t>Regency Anantam</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Mumbai</t>
+          <t>Araria</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>400022</t>
+          <t>421202</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -1396,7 +1452,7 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>Bihar</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
@@ -1412,7 +1468,7 @@
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="inlineStr">
         <is>
-          <t>2299.00</t>
+          <t>7498.00</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
@@ -1430,33 +1486,41 @@
       <c r="AD7" t="b">
         <v>0</v>
       </c>
-      <c r="AE7" t="inlineStr"/>
+      <c r="AE7" t="inlineStr">
+        <is>
+          <t>deactive</t>
+        </is>
+      </c>
       <c r="AF7" t="n">
-        <v>2299</v>
+        <v>7498</v>
       </c>
       <c r="AG7" t="n">
-        <v>2299</v>
+        <v>7498</v>
       </c>
       <c r="AH7" t="inlineStr"/>
-      <c r="AI7" t="inlineStr"/>
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
       <c r="AJ7" t="inlineStr"/>
       <c r="AK7" t="inlineStr"/>
       <c r="AL7" s="2" t="n">
-        <v>45296.3287740994</v>
+        <v>45300.80281944353</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45296.33965068372</v>
+        <v>45300.80393052487</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SZ-77616</t>
+          <t>SZ-28683</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>10020169905</t>
+          <t>10020177619</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1466,17 +1530,17 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1002016990501</t>
+          <t>1002017761903</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Yellow</t>
+          <t>White</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -1485,44 +1549,44 @@
         </is>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J8" t="n">
-        <v>2599</v>
+        <v>7797</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Hrithikhadawale</t>
+          <t>KushalBauskar</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>hrithikhadawale75@gmail.com</t>
+          <t>kbauskar07@gmail.com</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>9082363252</t>
+          <t>8433771414</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>ROO NO.12 BHIMASHANKAR HOU. SOCIETY</t>
+          <t>Sk road, Regency</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>PARERAWADI ASLPHA GHAKOPER WEST</t>
+          <t>Regency Anantam</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>MUMBAI</t>
+          <t>Araria</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>400084</t>
+          <t>421202</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1532,7 +1596,7 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>Maharashtra</t>
+          <t>Bihar</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
@@ -1548,12 +1612,12 @@
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr">
         <is>
-          <t>5198.00</t>
+          <t>7498.00</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>Canceled</t>
+          <t>Order Processing</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr"/>
@@ -1561,38 +1625,46 @@
       <c r="AA8" t="inlineStr"/>
       <c r="AB8" t="inlineStr"/>
       <c r="AC8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD8" t="b">
         <v>0</v>
       </c>
-      <c r="AE8" t="inlineStr"/>
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t>deactive</t>
+        </is>
+      </c>
       <c r="AF8" t="n">
-        <v>5198</v>
+        <v>7498</v>
       </c>
       <c r="AG8" t="n">
-        <v>5198</v>
+        <v>7498</v>
       </c>
       <c r="AH8" t="inlineStr"/>
-      <c r="AI8" t="inlineStr"/>
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
       <c r="AJ8" t="inlineStr"/>
       <c r="AK8" t="inlineStr"/>
       <c r="AL8" s="2" t="n">
-        <v>45296.33910666193</v>
+        <v>45300.80381941084</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45296.33965068372</v>
+        <v>45300.80647959009</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SZ-77616</t>
+          <t>SZ-91051</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>10020172128</t>
+          <t>10020177619</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1602,17 +1674,17 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1002017212801</t>
+          <t>1002017761903</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>White</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -1621,44 +1693,44 @@
         </is>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J9" t="n">
-        <v>2599</v>
+        <v>7797</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Hrithikhadawale</t>
+          <t>KushalBauskar</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>hrithikhadawale75@gmail.com</t>
+          <t>kbauskar07@gmail.com</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>9082363252</t>
+          <t>8433771414</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>ROO NO.12 BHIMASHANKAR HOU. SOCIETY</t>
+          <t>Sk road, Regency</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>PARERAWADI ASLPHA GHAKOPER WEST</t>
+          <t>Regency Anantam</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>MUMBAI</t>
+          <t>Araria</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>400084</t>
+          <t>421202</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -1668,7 +1740,7 @@
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>Maharashtra</t>
+          <t>Bihar</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
@@ -1684,12 +1756,12 @@
       <c r="V9" t="inlineStr"/>
       <c r="W9" t="inlineStr">
         <is>
-          <t>5198.00</t>
+          <t>7498.00</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>Canceled</t>
+          <t>Order Processing</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr"/>
@@ -1697,104 +1769,112 @@
       <c r="AA9" t="inlineStr"/>
       <c r="AB9" t="inlineStr"/>
       <c r="AC9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD9" t="b">
         <v>0</v>
       </c>
-      <c r="AE9" t="inlineStr"/>
+      <c r="AE9" t="inlineStr">
+        <is>
+          <t>deactive</t>
+        </is>
+      </c>
       <c r="AF9" t="n">
-        <v>5198</v>
+        <v>7498</v>
       </c>
       <c r="AG9" t="n">
-        <v>5198</v>
+        <v>7498</v>
       </c>
       <c r="AH9" t="inlineStr"/>
-      <c r="AI9" t="inlineStr"/>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
       <c r="AJ9" t="inlineStr"/>
       <c r="AK9" t="inlineStr"/>
       <c r="AL9" s="2" t="n">
-        <v>45296.33910666193</v>
+        <v>45300.80635504571</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45296.35940990305</v>
+        <v>45300.80705299954</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>SZ-74000</t>
+          <t>SZ-41631</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>10023083717</t>
+          <t>10020177619</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Plus Size Printed Boxers</t>
+          <t>Plus Size Checks Shirt</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1002308371708</t>
+          <t>1002017761903</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1-2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>White</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>599.0</t>
+          <t>2599.0</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J10" t="n">
-        <v>599</v>
+        <v>7797</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Hrithikhadawale</t>
+          <t>KushalBauskar</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>hrithikhadawale75@gmail.com</t>
+          <t>kbauskar07@gmail.com</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>9082363252</t>
+          <t>8433771414</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>ROO NO.12 BHIMASHANKAR HOU. SOCIETY</t>
+          <t>Sk road, Regency</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>PARERAWADI ASLPHA GHAKOPER WEST</t>
+          <t>Regency Anantam</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>MUMBAI</t>
+          <t>Araria</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>400084</t>
+          <t>421202</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -1804,7 +1884,7 @@
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>Maharashtra</t>
+          <t>Bihar</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
@@ -1820,12 +1900,12 @@
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="inlineStr">
         <is>
-          <t>599.00</t>
+          <t>7498.00</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>Canceled</t>
+          <t>Order Processing</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr"/>
@@ -1833,104 +1913,112 @@
       <c r="AA10" t="inlineStr"/>
       <c r="AB10" t="inlineStr"/>
       <c r="AC10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD10" t="b">
         <v>0</v>
       </c>
-      <c r="AE10" t="inlineStr"/>
+      <c r="AE10" t="inlineStr">
+        <is>
+          <t>deactive</t>
+        </is>
+      </c>
       <c r="AF10" t="n">
-        <v>599</v>
+        <v>7498</v>
       </c>
       <c r="AG10" t="n">
-        <v>599</v>
+        <v>7498</v>
       </c>
       <c r="AH10" t="inlineStr"/>
-      <c r="AI10" t="inlineStr"/>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
       <c r="AJ10" t="inlineStr"/>
       <c r="AK10" t="inlineStr"/>
       <c r="AL10" s="2" t="n">
-        <v>45296.34501002879</v>
+        <v>45300.80703528895</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45296.35951728906</v>
+        <v>45300.8277992762</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>SZ-43883</t>
+          <t>SZ-62159</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>10020171019</t>
+          <t>20022190954</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Plus Size Checks Shirt</t>
+          <t>Plus Size Printed Pants</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1002017101901</t>
+          <t>2002219095400</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Teal Blue</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2599.0</t>
+          <t>1899.0</t>
         </is>
       </c>
       <c r="I11" t="n">
         <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>2599</v>
+        <v>1899</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Hrithikhadawale</t>
+          <t>KushalBauskar</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>hrithikhadawale75@gmail.com</t>
+          <t>kbauskar07@gmail.com</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>9082363252</t>
+          <t>8433771414</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>ROO NO.12 BHIMASHANKAR HOU. SOCIETY</t>
+          <t>Sk road, Regency</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>PARERAWADI ASLPHA GHAKOPER WEST</t>
+          <t>Regency Anantam</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>MUMBAI</t>
+          <t>Araria</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>400084</t>
+          <t>421202</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -1940,7 +2028,7 @@
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>Maharashtra</t>
+          <t>Bihar</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
@@ -1956,12 +2044,12 @@
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="inlineStr">
         <is>
-          <t>5198.00</t>
+          <t>7498.00</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>Canceled</t>
+          <t>Order Processing</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr"/>
@@ -1969,104 +2057,112 @@
       <c r="AA11" t="inlineStr"/>
       <c r="AB11" t="inlineStr"/>
       <c r="AC11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD11" t="b">
         <v>0</v>
       </c>
-      <c r="AE11" t="inlineStr"/>
+      <c r="AE11" t="inlineStr">
+        <is>
+          <t>deactive</t>
+        </is>
+      </c>
       <c r="AF11" t="n">
-        <v>5198</v>
+        <v>7498</v>
       </c>
       <c r="AG11" t="n">
-        <v>5198</v>
+        <v>7498</v>
       </c>
       <c r="AH11" t="inlineStr"/>
-      <c r="AI11" t="inlineStr"/>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
       <c r="AJ11" t="inlineStr"/>
       <c r="AK11" t="inlineStr"/>
       <c r="AL11" s="2" t="n">
-        <v>45296.35332485804</v>
+        <v>45300.82767874083</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45296.35951728906</v>
+        <v>45300.82853255173</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SZ-43883</t>
+          <t>SZ-56552</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>10020175411</t>
+          <t>20020559010</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Plus Size Checks Shirt</t>
+          <t>Plus Size Stripe Jeggings</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1002017541101</t>
+          <t>2002055901000</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Navy</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2599.0</t>
+          <t>2499.0</t>
         </is>
       </c>
       <c r="I12" t="n">
         <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>2599</v>
+        <v>2499</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Hrithikhadawale</t>
+          <t>KushalBauskar</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>hrithikhadawale75@gmail.com</t>
+          <t>kbauskar07@gmail.com</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>9082363252</t>
+          <t>8433771414</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>ROO NO.12 BHIMASHANKAR HOU. SOCIETY</t>
+          <t>Sk road, Regency</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>PARERAWADI ASLPHA GHAKOPER WEST</t>
+          <t>Regency Anantam</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>MUMBAI</t>
+          <t>Araria</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>400084</t>
+          <t>421202</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -2076,7 +2172,7 @@
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>Maharashtra</t>
+          <t>Bihar</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
@@ -2092,12 +2188,12 @@
       <c r="V12" t="inlineStr"/>
       <c r="W12" t="inlineStr">
         <is>
-          <t>5198.00</t>
+          <t>7498.00</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>Canceled</t>
+          <t>Order Processing</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr"/>
@@ -2105,48 +2201,56 @@
       <c r="AA12" t="inlineStr"/>
       <c r="AB12" t="inlineStr"/>
       <c r="AC12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD12" t="b">
         <v>0</v>
       </c>
-      <c r="AE12" t="inlineStr"/>
+      <c r="AE12" t="inlineStr">
+        <is>
+          <t>deactive</t>
+        </is>
+      </c>
       <c r="AF12" t="n">
-        <v>5198</v>
+        <v>7498</v>
       </c>
       <c r="AG12" t="n">
-        <v>5198</v>
+        <v>7498</v>
       </c>
       <c r="AH12" t="inlineStr"/>
-      <c r="AI12" t="inlineStr"/>
+      <c r="AI12" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
       <c r="AJ12" t="inlineStr"/>
       <c r="AK12" t="inlineStr"/>
       <c r="AL12" s="2" t="n">
-        <v>45296.35332485804</v>
+        <v>45300.82851516539</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45296.38586253003</v>
+        <v>45300.82904823188</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>SZ-28688</t>
+          <t>SZ-26429</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>20022094120</t>
+          <t>20020559010</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Plus Size Rib T-Shirt</t>
+          <t>Plus Size Stripe Jeggings</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2002209412000</t>
+          <t>2002055901000</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -2156,53 +2260,53 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Olive</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>1499.0</t>
+          <t>2499.0</t>
         </is>
       </c>
       <c r="I13" t="n">
         <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>1499</v>
+        <v>2499</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>SaloniShigwan</t>
+          <t>KushalBauskar</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>saloni.sizeupp@gmail.com</t>
+          <t>kbauskar07@gmail.com</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>7758062247</t>
+          <t>8433771414</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>Solaris F 434</t>
+          <t>Sk road, Regency</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Andheri east</t>
+          <t>Regency Anantam</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Mumbai</t>
+          <t>Araria</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>400072</t>
+          <t>421202</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -2212,7 +2316,7 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>Maharastra</t>
+          <t>Bihar</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
@@ -2228,7 +2332,7 @@
       <c r="V13" t="inlineStr"/>
       <c r="W13" t="inlineStr">
         <is>
-          <t>4098.00</t>
+          <t>7498.00</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
@@ -2246,43 +2350,51 @@
       <c r="AD13" t="b">
         <v>0</v>
       </c>
-      <c r="AE13" t="inlineStr"/>
+      <c r="AE13" t="inlineStr">
+        <is>
+          <t>deactive</t>
+        </is>
+      </c>
       <c r="AF13" t="n">
-        <v>4098</v>
+        <v>7498</v>
       </c>
       <c r="AG13" t="n">
-        <v>4098</v>
+        <v>7498</v>
       </c>
       <c r="AH13" t="inlineStr"/>
-      <c r="AI13" t="inlineStr"/>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
       <c r="AJ13" t="inlineStr"/>
       <c r="AK13" t="inlineStr"/>
       <c r="AL13" s="2" t="n">
-        <v>45296.38574425221</v>
+        <v>45300.82903126656</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45296.38586253003</v>
+        <v>45300.82904823188</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>SZ-28688</t>
+          <t>SZ-26429</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>10020184932</t>
+          <t>10020179411</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Plus Size Checks Shirt</t>
+          <t>Plus Size Party Wear Shirt</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1002018493201</t>
+          <t>1002017941101</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -2292,53 +2404,53 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Indigo</t>
+          <t>Navy</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2599.0</t>
+          <t>2499.0</t>
         </is>
       </c>
       <c r="I14" t="n">
         <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>2599</v>
+        <v>2499</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>SaloniShigwan</t>
+          <t>KushalBauskar</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>saloni.sizeupp@gmail.com</t>
+          <t>kbauskar07@gmail.com</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>7758062247</t>
+          <t>8433771414</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>Solaris F 434</t>
+          <t>Sk road, Regency</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Andheri east</t>
+          <t>Regency Anantam</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Mumbai</t>
+          <t>Araria</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>400072</t>
+          <t>421202</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -2348,7 +2460,7 @@
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>Maharastra</t>
+          <t>Bihar</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
@@ -2364,7 +2476,7 @@
       <c r="V14" t="inlineStr"/>
       <c r="W14" t="inlineStr">
         <is>
-          <t>4098.00</t>
+          <t>7498.00</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
@@ -2382,19 +2494,1743 @@
       <c r="AD14" t="b">
         <v>0</v>
       </c>
-      <c r="AE14" t="inlineStr"/>
+      <c r="AE14" t="inlineStr">
+        <is>
+          <t>deactive</t>
+        </is>
+      </c>
       <c r="AF14" t="n">
-        <v>4098</v>
+        <v>7498</v>
       </c>
       <c r="AG14" t="n">
-        <v>4098</v>
+        <v>7498</v>
       </c>
       <c r="AH14" t="inlineStr"/>
-      <c r="AI14" t="inlineStr"/>
+      <c r="AI14" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
       <c r="AJ14" t="inlineStr"/>
       <c r="AK14" t="inlineStr"/>
       <c r="AL14" s="2" t="n">
-        <v>45296.38574425221</v>
+        <v>45300.82903126656</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45300.82962363608</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>SZ-63331</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>20020559010</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Plus Size Stripe Jeggings</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2002055901000</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2499.0</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2499</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>KushalBauskar</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>kbauskar07@gmail.com</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>8433771414</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>Sk road, Regency</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>Regency Anantam</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>Araria</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>421202</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>Bihar</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>COD</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr"/>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>7498.00</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>Order Processing</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr"/>
+      <c r="Z15" t="inlineStr"/>
+      <c r="AA15" t="inlineStr"/>
+      <c r="AB15" t="inlineStr"/>
+      <c r="AC15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE15" t="inlineStr">
+        <is>
+          <t>deactive</t>
+        </is>
+      </c>
+      <c r="AF15" t="n">
+        <v>7498</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>7498</v>
+      </c>
+      <c r="AH15" t="inlineStr"/>
+      <c r="AI15" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AJ15" t="inlineStr"/>
+      <c r="AK15" t="inlineStr"/>
+      <c r="AL15" s="2" t="n">
+        <v>45300.82960704334</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45300.82962363608</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>SZ-63331</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>10020179411</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Plus Size Party Wear Shirt</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>1002017941101</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Navy</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>2499.0</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>2499</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>KushalBauskar</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>kbauskar07@gmail.com</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>8433771414</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>Sk road, Regency</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>Regency Anantam</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>Araria</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>421202</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>Bihar</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>COD</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr"/>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>7498.00</t>
+        </is>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>Order Processing</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr"/>
+      <c r="Z16" t="inlineStr"/>
+      <c r="AA16" t="inlineStr"/>
+      <c r="AB16" t="inlineStr"/>
+      <c r="AC16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE16" t="inlineStr">
+        <is>
+          <t>deactive</t>
+        </is>
+      </c>
+      <c r="AF16" t="n">
+        <v>7498</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>7498</v>
+      </c>
+      <c r="AH16" t="inlineStr"/>
+      <c r="AI16" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AJ16" t="inlineStr"/>
+      <c r="AK16" t="inlineStr"/>
+      <c r="AL16" s="2" t="n">
+        <v>45300.82960704334</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45300.83364974751</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>SZ-68914</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>20020559010</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Plus Size Stripe Jeggings</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2002055901000</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>2499.0</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2499</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>KushalBauskar</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>kbauskar07@gmail.com</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>8433771414</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>Sk road, Regency</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>Regency Anantam</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>Araria</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>421202</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>Bihar</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>COD</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr"/>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>7498.00</t>
+        </is>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>Order Processing</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr"/>
+      <c r="Z17" t="inlineStr"/>
+      <c r="AA17" t="inlineStr"/>
+      <c r="AB17" t="inlineStr"/>
+      <c r="AC17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE17" t="inlineStr">
+        <is>
+          <t>deactive</t>
+        </is>
+      </c>
+      <c r="AF17" t="n">
+        <v>7498</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>7498</v>
+      </c>
+      <c r="AH17" t="inlineStr"/>
+      <c r="AI17" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AJ17" t="inlineStr"/>
+      <c r="AK17" t="inlineStr"/>
+      <c r="AL17" s="2" t="n">
+        <v>45300.83363186076</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45300.83364974751</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>SZ-68914</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>10020179411</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Plus Size Party Wear Shirt</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>1002017941101</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Navy</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>2499.0</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2499</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>KushalBauskar</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>kbauskar07@gmail.com</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>8433771414</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>Sk road, Regency</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>Regency Anantam</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>Araria</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>421202</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>Bihar</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>COD</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr"/>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>7498.00</t>
+        </is>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>Order Processing</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr"/>
+      <c r="Z18" t="inlineStr"/>
+      <c r="AA18" t="inlineStr"/>
+      <c r="AB18" t="inlineStr"/>
+      <c r="AC18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE18" t="inlineStr">
+        <is>
+          <t>deactive</t>
+        </is>
+      </c>
+      <c r="AF18" t="n">
+        <v>7498</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>7498</v>
+      </c>
+      <c r="AH18" t="inlineStr"/>
+      <c r="AI18" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AJ18" t="inlineStr"/>
+      <c r="AK18" t="inlineStr"/>
+      <c r="AL18" s="2" t="n">
+        <v>45300.83363186076</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45300.83551299808</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>SZ-52896</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>20020559010</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Plus Size Stripe Jeggings</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2002055901000</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>2499.0</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>2499</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>KushalBauskar</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>kbauskar07@gmail.com</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>8433771414</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>Sk road, Regency</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>Regency Anantam</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>Araria</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>421202</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>Bihar</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>COD</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr"/>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>7498.00</t>
+        </is>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>Order Processing</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr"/>
+      <c r="Z19" t="inlineStr"/>
+      <c r="AA19" t="inlineStr"/>
+      <c r="AB19" t="inlineStr"/>
+      <c r="AC19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE19" t="inlineStr">
+        <is>
+          <t>deactive</t>
+        </is>
+      </c>
+      <c r="AF19" t="n">
+        <v>7498</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>7498</v>
+      </c>
+      <c r="AH19" t="inlineStr"/>
+      <c r="AI19" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AJ19" t="inlineStr"/>
+      <c r="AK19" t="inlineStr"/>
+      <c r="AL19" s="2" t="n">
+        <v>45300.83549631741</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45300.83551299808</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>SZ-52896</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>10020179411</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Plus Size Party Wear Shirt</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>1002017941101</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Navy</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>2499.0</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>2499</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>KushalBauskar</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>kbauskar07@gmail.com</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>8433771414</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>Sk road, Regency</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>Regency Anantam</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>Araria</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>421202</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>Bihar</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>COD</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr"/>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>7498.00</t>
+        </is>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>Order Processing</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr"/>
+      <c r="Z20" t="inlineStr"/>
+      <c r="AA20" t="inlineStr"/>
+      <c r="AB20" t="inlineStr"/>
+      <c r="AC20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE20" t="inlineStr">
+        <is>
+          <t>deactive</t>
+        </is>
+      </c>
+      <c r="AF20" t="n">
+        <v>7498</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>7498</v>
+      </c>
+      <c r="AH20" t="inlineStr"/>
+      <c r="AI20" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AJ20" t="inlineStr"/>
+      <c r="AK20" t="inlineStr"/>
+      <c r="AL20" s="2" t="n">
+        <v>45300.83549631741</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45301.49967916685</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>SZ-62604</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>20020452118</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Plus Size Solid Leggings</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>2002045211800</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Beige</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>1199.0</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>2</v>
+      </c>
+      <c r="J21" t="n">
+        <v>2398</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>KushalBauskar</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>kbauskar07@gmail.com</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>8433771414</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>Sk road, Regency</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>Regency Anantam</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>Mumbai</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>421202</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>Maharashtra</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>COD</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr"/>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>2398.00</t>
+        </is>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>Order Processing</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr"/>
+      <c r="Z21" t="inlineStr"/>
+      <c r="AA21" t="inlineStr"/>
+      <c r="AB21" t="inlineStr"/>
+      <c r="AC21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE21" t="inlineStr"/>
+      <c r="AF21" t="n">
+        <v>2398</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>2398</v>
+      </c>
+      <c r="AH21" t="inlineStr"/>
+      <c r="AI21" t="inlineStr"/>
+      <c r="AJ21" t="inlineStr"/>
+      <c r="AK21" t="inlineStr"/>
+      <c r="AL21" s="2" t="n">
+        <v>45301.49952781451</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45301.56967815151</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>SZ-91567</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>20020451916</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Plus Size Solid Leggings</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>2002045191600</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Khaki</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>1199.0</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>4</v>
+      </c>
+      <c r="J22" t="n">
+        <v>4796</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>KushalBauskar</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>kbauskar07@gmail.com</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>8433771414</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>Sizeupp, F-434, Solaris 1 Indl Estate, Opp L &amp; T Gate No.6</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>Saki Vihar Rd, Powai, Andheri-Eas</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>Andheri</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>400072</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>Maharashtra</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>COD</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr"/>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>4796.00</t>
+        </is>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr"/>
+      <c r="Z22" t="inlineStr"/>
+      <c r="AA22" t="inlineStr"/>
+      <c r="AB22" t="inlineStr"/>
+      <c r="AC22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE22" t="inlineStr"/>
+      <c r="AF22" t="n">
+        <v>4796</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>4796</v>
+      </c>
+      <c r="AH22" t="inlineStr"/>
+      <c r="AI22" t="inlineStr"/>
+      <c r="AJ22" t="inlineStr"/>
+      <c r="AK22" t="inlineStr"/>
+      <c r="AL22" s="2" t="n">
+        <v>45301.55777232879</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45301.57392059459</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>SZ-32224</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>20021065511</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Plus Size Message T-Shirt</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>2002106551100</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Navy</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>1599.0</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>3</v>
+      </c>
+      <c r="J23" t="n">
+        <v>4797</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>KushalBauskar</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>kbauskar07@gmail.com</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>8433771414</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>Sizeupp, F-434, Solaris 1 Indl Estate, Opp L &amp; T Gate No.6</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>Saki Vihar Rd, Powai, Andheri-Eas</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>Andheri</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>400072</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>Maharashtra</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>COD</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr"/>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>4797.00</t>
+        </is>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>Order Processing</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr"/>
+      <c r="Z23" t="inlineStr"/>
+      <c r="AA23" t="inlineStr"/>
+      <c r="AB23" t="inlineStr"/>
+      <c r="AC23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE23" t="inlineStr"/>
+      <c r="AF23" t="n">
+        <v>4797</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>4797</v>
+      </c>
+      <c r="AH23" t="inlineStr"/>
+      <c r="AI23" t="inlineStr"/>
+      <c r="AJ23" t="inlineStr"/>
+      <c r="AK23" t="inlineStr"/>
+      <c r="AL23" s="2" t="n">
+        <v>45301.57380002149</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45302.41448590278</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>SZ-94431</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>10020157017</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Plus Size Printed Shirt</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>1002015701701</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>2399.0</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>2</v>
+      </c>
+      <c r="J24" t="n">
+        <v>4798</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>KushalBauskar</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>kbauskar07@gmail.com</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>8433771414</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>Sizeupp, F-434, Solaris 1 Indl Estate, Opp L &amp; T Gate No.6</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>Saki Vihar Rd, Powai, Andheri-Eas</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>Andheri</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>400072</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>Maharashtra</t>
+        </is>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>COD</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr"/>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>4798.00</t>
+        </is>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>Order Processing</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>77884426362</t>
+        </is>
+      </c>
+      <c r="Z24" t="inlineStr">
+        <is>
+          <t>BlueDart</t>
+        </is>
+      </c>
+      <c r="AA24" t="inlineStr">
+        <is>
+          <t>https://api.instashipin.com/api/ilogix/external_labels?api_token=AN1l6VJSo5WXp4UJvagd37WoJaDuMIIVhbpjU9jmMfbQxSuTsh5O7KaXE9TZjELVlQ1nCf4Tl1UMvHBH&amp;type=labels&amp;awbno=77884426362</t>
+        </is>
+      </c>
+      <c r="AB24" t="inlineStr"/>
+      <c r="AC24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE24" t="inlineStr"/>
+      <c r="AF24" t="n">
+        <v>4798</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>4798</v>
+      </c>
+      <c r="AH24" t="inlineStr"/>
+      <c r="AI24" t="inlineStr"/>
+      <c r="AJ24" t="inlineStr"/>
+      <c r="AK24" t="inlineStr"/>
+      <c r="AL24" s="2" t="n">
+        <v>45302.41431552898</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45302.84635631884</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>SZ-34172</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>100206120513</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Plus Size Stripe Formal Shirt</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>10020612051301</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Pink</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>2499.0</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" t="n">
+        <v>2499</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>hrithikhadawale</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>hrithikhadawale75@gmail.com</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>9082363252</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>ROO NO.12 BHIMASHANKAR HOU. SOCIETY</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>PARERAWADI ASLPHA GHAKOPER WEST</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>Mudkhed</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>400084</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>Maharashtra</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>COD</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr"/>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>2499.00</t>
+        </is>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>77884678222</t>
+        </is>
+      </c>
+      <c r="Z25" t="inlineStr">
+        <is>
+          <t>BlueDart</t>
+        </is>
+      </c>
+      <c r="AA25" t="inlineStr">
+        <is>
+          <t>https://api.instashipin.com/api/ilogix/external_labels?api_token=AN1l6VJSo5WXp4UJvagd37WoJaDuMIIVhbpjU9jmMfbQxSuTsh5O7KaXE9TZjELVlQ1nCf4Tl1UMvHBH&amp;type=labels&amp;awbno=77884678222</t>
+        </is>
+      </c>
+      <c r="AB25" t="inlineStr"/>
+      <c r="AC25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE25" t="inlineStr"/>
+      <c r="AF25" t="n">
+        <v>2499</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>2499</v>
+      </c>
+      <c r="AH25" t="inlineStr"/>
+      <c r="AI25" t="inlineStr"/>
+      <c r="AJ25" t="inlineStr"/>
+      <c r="AK25" t="inlineStr"/>
+      <c r="AL25" s="2" t="n">
+        <v>45302.83142866745</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45303.14466778337</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>SZ-13199</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>20025198570</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Plus Size Printed Kurta Dupatta Set</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>2002519857002</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Dusty Pink</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>3499.0</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>3</v>
+      </c>
+      <c r="J26" t="n">
+        <v>10497</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>KushalBauskar</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>kbauskar07@gmail.com</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>8433771414</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>Sizeupp, F-434, Solaris 1 Indl Estate, Opp L &amp; T Gate No.6</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>Saki Vihar Rd, Powai, Andheri-Eas</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>Andheri</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>400072</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>Maharashtra</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>COD</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr"/>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>10497.00</t>
+        </is>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>77884752304</t>
+        </is>
+      </c>
+      <c r="Z26" t="inlineStr">
+        <is>
+          <t>BlueDart</t>
+        </is>
+      </c>
+      <c r="AA26" t="inlineStr">
+        <is>
+          <t>https://api.instashipin.com/api/ilogix/external_labels?api_token=AN1l6VJSo5WXp4UJvagd37WoJaDuMIIVhbpjU9jmMfbQxSuTsh5O7KaXE9TZjELVlQ1nCf4Tl1UMvHBH&amp;type=labels&amp;awbno=77884752304</t>
+        </is>
+      </c>
+      <c r="AB26" t="inlineStr"/>
+      <c r="AC26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE26" t="inlineStr"/>
+      <c r="AF26" t="n">
+        <v>10497</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>10497</v>
+      </c>
+      <c r="AH26" t="inlineStr"/>
+      <c r="AI26" t="inlineStr"/>
+      <c r="AJ26" t="inlineStr"/>
+      <c r="AK26" t="inlineStr"/>
+      <c r="AL26" s="2" t="n">
+        <v>45303.14026108992</v>
       </c>
     </row>
   </sheetData>
